--- a/doc/ArticlesAboutExtremeWeather.xlsx
+++ b/doc/ArticlesAboutExtremeWeather.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Massimo\Documents\SchoolFolder\ThirdYear\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Massimo\Documents\SchoolFolder\ThirdYear\Thesis\MassThesis\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF576AA7-A738-4E7B-86C7-38FB8695C21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA31B3-688F-4FAF-B227-D2BC1CFA870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF06E16F-66E8-4995-BFAA-43AA967A883B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF06E16F-66E8-4995-BFAA-43AA967A883B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Articles about Extreme Weather" sheetId="2" r:id="rId1"/>
+    <sheet name="Reports and Evaluation Articles" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>https://lovinmalta.com/news/weather/40c-and-counting-intense-rare-heatwave-set-to-hit-malta-with-abnormally-high-temperatures-this-weekend/</t>
   </si>
   <si>
-    <t>https://www.maltatoday.com.mt/environment/environment/111398/heat_dome_will_bake_mediterranean_in_near46c_heatwave#.YWq3_O1R1PY</t>
-  </si>
-  <si>
     <t>August </t>
   </si>
   <si>
@@ -69,12 +64,6 @@
     <t>October</t>
   </si>
   <si>
-    <t>https://www.malteseislandsweather.com/category/reports/severe-weather/</t>
-  </si>
-  <si>
-    <t>https://timesofmalta.com/articles/view/hotter-and-drier-2019-a-year-of-extreme-weather.761451</t>
-  </si>
-  <si>
     <t>September</t>
   </si>
   <si>
@@ -87,9 +76,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>https://www.malteseislandsweather.com/severe-thunderstorm-on-27-05-2020/</t>
-  </si>
-  <si>
     <t>https://www.malteseislandsweather.com/heavy-thunderstorms-on-12131416-09-2020/</t>
   </si>
   <si>
@@ -105,18 +91,12 @@
     <t>Year About</t>
   </si>
   <si>
-    <t>https://www.maltatoday.com.mt/news/national/111488/maltas_climate_got_14c_hotter_over_last_century#.YWq-pu1R1PY</t>
-  </si>
-  <si>
     <t>1900-2000</t>
   </si>
   <si>
     <t>Annual Report</t>
   </si>
   <si>
-    <t>https://www.guidememalta.com/en/over-3-033-hours-of-sunshine-here-s-a-look-back-at-malta-gozo-s-2020-weather</t>
-  </si>
-  <si>
     <t>1950-2010</t>
   </si>
   <si>
@@ -129,34 +109,100 @@
     <t>Annual Storm Report</t>
   </si>
   <si>
-    <t>https://www.guidememalta.com/en/watch-the-worst-storms-to-hit-the-maltese-islands-in-2019</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
-    <t>https://lovinmalta.com/lifestyle/living-in-malta/apocalypsenow-heres-a-list-of-everything-thats-happened-in-malta-today/</t>
-  </si>
-  <si>
-    <t>https://www.malteseislandsweather.com/category/reports/annual/</t>
-  </si>
-  <si>
     <t>2019-2021</t>
   </si>
   <si>
     <t>Extreme Weather Report</t>
   </si>
   <si>
-    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwiC-tHC6s7zAhWvgf0HHXYVBLgQFnoECAsQAQ&amp;url=https%3A%2F%2Fwww.malteseislandsweather.com%2Fcategory%2Freports%2Fsevere-weather%2F&amp;usg=AOvVaw0zH9Wo8GrQEocDLYybAMn5</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
     <t>Wettest Month Since 2011</t>
   </si>
   <si>
-    <t>https://www.maltairport.com/january-makes-splash-following-relatively-dry-end-2018/</t>
+    <t>Recorded Temps (°C)</t>
+  </si>
+  <si>
+    <t>Date/s</t>
+  </si>
+  <si>
+    <t>40°C And Counting! 'Intense Rare Heatwave' Set To Hit Malta With 'Abnormally High' Temperatures This Weekend (lovinmalta.com)</t>
+  </si>
+  <si>
+    <t>Malta heads for its third heatwave of the summer (timesofmalta.com)</t>
+  </si>
+  <si>
+    <t>HeatWave</t>
+  </si>
+  <si>
+    <t>34-41.5</t>
+  </si>
+  <si>
+    <t>Acres Of Land In Malta Have Burned Down During Recent Heatwave (lovinmalta.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Jul-29) -(Aug-4) </t>
+  </si>
+  <si>
+    <t>Another week, another heatwave - Oh My Malta</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Monthly Reports</t>
+  </si>
+  <si>
+    <t>42(11/08/21)</t>
+  </si>
+  <si>
+    <t>https://www.maltatoday.com.mt/environment/environment/111398/heat_dome_will_bake_mediterranean_in_near46c_heatwave#.YXQy-ppBxPZ</t>
+  </si>
+  <si>
+    <t>Severe Weather Reports - Maltese Islands Weather</t>
+  </si>
+  <si>
+    <t>Malta, Italy swelter as Spain, Portugal brace for coming heat wave - The Malta Independent</t>
+  </si>
+  <si>
+    <t>Severe Thunderstorm on 27/05/2020 - Maltese Islands Weather</t>
+  </si>
+  <si>
+    <t>Apocalypse Now: Here's A List Of Everything That's Happened In Malta Today - Lovin Malta</t>
+  </si>
+  <si>
+    <t>Hotter and drier... 2019: a year of extreme weather (timesofmalta.com)</t>
+  </si>
+  <si>
+    <t>Malta’s climate got 1.4°C hotter over last century (maltatoday.com.mt)</t>
+  </si>
+  <si>
+    <t>Over 3,033 hours of sunshine! Here’s a look back at Malta &amp; Gozo’s 2020 weather (guidememalta.com)</t>
+  </si>
+  <si>
+    <t>End of Year Reports - Maltese Islands Weather</t>
+  </si>
+  <si>
+    <t>WATCH: The worst storms to hit the Maltese islands in 2019 (guidememalta.com)</t>
+  </si>
+  <si>
+    <t>2019's January Weather in Malta the Wettest Since 2011 (maltairport.com)</t>
+  </si>
+  <si>
+    <t>Monthly Reports - Maltese Islands Weather</t>
+  </si>
+  <si>
+    <t>Forecasted  Temps (°C)</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -180,15 +226,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -222,15 +274,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -316,36 +359,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,446 +748,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B462BB3A-C039-4B60-A5BE-1AEAA988BA22}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08978A8-D6FC-4867-A806-ECB3D86CA582}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="250.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="21">
+        <v>46569</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4">
+        <v>33</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="21">
+        <v>40391</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="21">
+        <v>41122</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
         <v>2019</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="D20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>2019</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="11" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>7</v>
-      </c>
-      <c r="B25" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>8</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>15</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>20</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{134DCF6D-6EA5-49C5-BFCD-9C7EF83FCC46}"/>
-    <hyperlink ref="E23" r:id="rId2" xr:uid="{F6AE13A8-3C15-421F-8208-224F63BB8E1A}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{134DCF6D-6EA5-49C5-BFCD-9C7EF83FCC46}"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://lovinmalta.com/news/weather/40c-and-counting-intense-rare-heatwave-set-to-hit-malta-with-abnormally-high-temperatures-this-weekend/" xr:uid="{39C90B8F-CC0C-4FE3-945D-E7BFF4B64F88}"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://timesofmalta.com/articles/view/no-respite-malta-heading-for-another-heatwave-next-week.892012" xr:uid="{8EF91664-BB55-4C53-AD8A-A2AF6A541056}"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://lovinmalta.com/news/acres-of-land-in-malta-have-burned-down-during-recent-heatwave/" xr:uid="{51DEF779-D814-4402-8243-0EFC9FF786CB}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://ohmymalta.com.mt/2021/07/29/another-week-another-heatwave/" xr:uid="{4AA102DD-DA8D-44A5-A631-5C38223E81A7}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{730D5F52-74B4-4B27-978B-B2EB33B48356}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{BD8934F4-745E-4ACB-9ABD-440EF5D75915}"/>
+    <hyperlink ref="D4" r:id="rId8" location=".YXQy-ppBxPZ" xr:uid="{D14F92EB-8122-4C97-AF82-3400B381493B}"/>
+    <hyperlink ref="D5" r:id="rId9" display="https://www.malteseislandsweather.com/category/reports/severe-weather/" xr:uid="{D7E70330-1AE2-4F71-8B56-8DCE3FD402D1}"/>
+    <hyperlink ref="D10" r:id="rId10" display="https://www.independent.com.mt/articles/2021-08-12/local-news/Malta-Italy-swelter-as-Spain-Portugal-brace-for-coming-heat-wave-6736235904" xr:uid="{1EC5D30D-BEB5-47ED-A003-80E6544A0F13}"/>
+    <hyperlink ref="D11" r:id="rId11" display="https://www.malteseislandsweather.com/severe-thunderstorm-on-27-05-2020/" xr:uid="{7E11591F-4BDD-418D-9D76-15C164CFC4DD}"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://lovinmalta.com/lifestyle/living-in-malta/apocalypsenow-heres-a-list-of-everything-thats-happened-in-malta-today/" xr:uid="{8C01C716-0A34-4278-9873-A7E8E68B637B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B462BB3A-C039-4B60-A5BE-1AEAA988BA22}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://timesofmalta.com/articles/view/hotter-and-drier-2019-a-year-of-extreme-weather.761451" xr:uid="{8B95195B-EED5-4819-8DCD-62FC6F6EEE74}"/>
+    <hyperlink ref="D4" r:id="rId2" location=".YXQ1m5pBxPZ" display="https://www.maltatoday.com.mt/news/national/111488/maltas_climate_got_14c_hotter_over_last_century - .YXQ1m5pBxPZ" xr:uid="{B07EB4F9-7713-4368-9CCD-341D9217B90D}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://www.guidememalta.com/en/over-3-033-hours-of-sunshine-here-s-a-look-back-at-malta-gozo-s-2020-weather" xr:uid="{68F9C9CB-B787-4EFE-9237-CF1DE30E8E86}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://www.malteseislandsweather.com/category/reports/annual/" xr:uid="{9961CDAC-8F42-499A-9D8B-A5D1D2CE5189}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{944E3962-A273-4E0F-BF61-EE435014D1B9}"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://www.guidememalta.com/en/watch-the-worst-storms-to-hit-the-maltese-islands-in-2019" xr:uid="{D46BFE69-7023-411F-BC74-55253AEADD9E}"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://www.malteseislandsweather.com/category/reports/severe-weather/" xr:uid="{A1549EA0-F3EE-46FA-B987-88B505BBFAF0}"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://www.maltairport.com/january-makes-splash-following-relatively-dry-end-2018/" xr:uid="{1EB6C396-8335-4567-8F3D-429FBF977914}"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://www.malteseislandsweather.com/monthly-reports/" xr:uid="{17597600-EF3C-49F6-833C-B555BB2B8406}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>